--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed2/result_data_KNN.xlsx
@@ -465,13 +465,13 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.472</v>
+        <v>5.624</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.17</v>
+        <v>-7.56</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.686</v>
+        <v>-21.535</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.642</v>
+        <v>-12.505</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.368</v>
+        <v>-7.855</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.372</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.76</v>
+        <v>16.461</v>
       </c>
     </row>
     <row r="10">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.108</v>
+        <v>-11.536</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.548</v>
+        <v>-21.624</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.872</v>
+        <v>-21.222</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.74</v>
+        <v>5.414</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.354000000000001</v>
+        <v>-8.078999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.586</v>
+        <v>-20.662</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.286</v>
+        <v>-20.254</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.46</v>
+        <v>16.586</v>
       </c>
     </row>
     <row r="24">
@@ -839,13 +839,13 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.942</v>
+        <v>7.05</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.776</v>
+        <v>-13.093</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.616</v>
+        <v>-7.220000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-20.626</v>
+        <v>-20.55</v>
       </c>
       <c r="B25" t="n">
-        <v>6.825999999999999</v>
+        <v>6.325</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.232</v>
+        <v>-12.523</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.678</v>
+        <v>-21.349</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.764</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="27">
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.029999999999999</v>
+        <v>5.564</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.839999999999999</v>
+        <v>-8.062000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.058</v>
+        <v>-21.162</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,13 +941,13 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.358</v>
+        <v>5.712000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.640000000000001</v>
+        <v>-7.377</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.044</v>
+        <v>4.976000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.398000000000001</v>
+        <v>-7.671000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.135999999999999</v>
+        <v>-7.666999999999999</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.364</v>
+        <v>16.485</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.596000000000001</v>
+        <v>7.798</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.064</v>
+        <v>-20.27</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1131,7 +1131,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.778</v>
+        <v>-12.61</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1145,13 +1145,13 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.831999999999999</v>
+        <v>8.395</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.654000000000001</v>
+        <v>-8.472</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.196</v>
+        <v>5.176</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.406</v>
+        <v>17.303</v>
       </c>
     </row>
     <row r="49">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.762</v>
+        <v>-13.087</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.922</v>
+        <v>5.216</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.676</v>
+        <v>4.933</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.764</v>
+        <v>-21.814</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.454</v>
+        <v>-11.891</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>17.07</v>
+        <v>16.766</v>
       </c>
     </row>
     <row r="55">
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.002</v>
+        <v>4.581999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.131000000000002</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,10 +1383,10 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.892</v>
+        <v>5.546000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.612</v>
+        <v>-12.676</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.052</v>
+        <v>-21.338</v>
       </c>
       <c r="B57" t="n">
-        <v>6.098</v>
+        <v>5.917</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.828</v>
+        <v>-12.531</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1420,10 +1420,10 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.744</v>
+        <v>-12.826</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.056000000000001</v>
+        <v>-8.094999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.834</v>
+        <v>-21.852</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>4.926</v>
+        <v>5.005000000000001</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.13</v>
+        <v>-13.181</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.752</v>
+        <v>16.867</v>
       </c>
     </row>
     <row r="63">
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.206</v>
+        <v>-11.757</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1522,7 +1522,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.144</v>
+        <v>-11.805</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.83</v>
+        <v>-21.564</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1542,10 +1542,10 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.176</v>
+        <v>-7.639</v>
       </c>
       <c r="E65" t="n">
-        <v>16.754</v>
+        <v>16.752</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.926</v>
+        <v>17.087</v>
       </c>
     </row>
     <row r="67">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.42</v>
+        <v>-21.56</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.194</v>
+        <v>-11.938</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.715999999999999</v>
+        <v>-7.569999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.492</v>
+        <v>-11.799</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.566</v>
+        <v>6.729000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,13 +1689,13 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.712</v>
+        <v>8.492000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.367999999999999</v>
+        <v>-8.044999999999998</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1712,10 +1712,10 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.742</v>
+        <v>-7.557999999999998</v>
       </c>
       <c r="E75" t="n">
-        <v>16.566</v>
+        <v>16.701</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.034</v>
+        <v>-21.237</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.482</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="82">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.59</v>
+        <v>-21.372</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.860000000000001</v>
+        <v>-8.526</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.672000000000001</v>
+        <v>-7.934</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1896,10 +1896,10 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.488</v>
+        <v>-12.574</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.038</v>
+        <v>-7.965000000000001</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,16 +1944,16 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.366</v>
+        <v>5.214</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.564</v>
+        <v>-11.873</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>16.866</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="90">
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.612000000000001</v>
+        <v>5.338000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.504</v>
+        <v>-21.527</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.64</v>
+        <v>5.962999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.634</v>
+        <v>-21.324</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>17.506</v>
+        <v>17.408</v>
       </c>
     </row>
     <row r="95">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.722</v>
+        <v>-7.533999999999999</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.214</v>
+        <v>-8.020999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.198</v>
+        <v>-12.712</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.526</v>
+        <v>-21.473</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.582</v>
+        <v>-12.279</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.126</v>
+        <v>-12.884</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
